--- a/Table_xls/t通用配置表.xlsx
+++ b/Table_xls/t通用配置表.xlsx
@@ -1,30 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\外包\我叫MT\project_table\Table_xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FA54C9-85BF-4AF0-AE2E-6656C6F51BA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:
@@ -32,12 +40,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:
@@ -45,12 +55,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:
@@ -58,12 +70,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:
@@ -71,12 +85,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B75" authorId="0">
+    <comment ref="B75" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:
@@ -84,12 +100,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B76" authorId="0">
+    <comment ref="B76" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:
@@ -102,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="310">
   <si>
     <t>id</t>
   </si>
@@ -303,6 +321,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>公会领地地图</t>
@@ -311,7 +330,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -321,6 +340,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>公会一键申请</t>
@@ -329,7 +349,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>CD</t>
     </r>
@@ -337,6 +357,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>时间</t>
@@ -407,7 +428,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>50</t>
     </r>
@@ -415,6 +436,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>级学徒自动转为成员</t>
@@ -425,6 +447,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>禁言自动解除时间</t>
@@ -433,7 +456,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>120</t>
     </r>
@@ -441,6 +464,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分钟</t>
@@ -511,7 +535,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1v1</t>
     </r>
@@ -519,6 +543,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>竞技场匹配间隔时间</t>
@@ -529,7 +554,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3v3</t>
     </r>
@@ -537,6 +562,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>竞技场匹配间隔时间</t>
@@ -547,7 +573,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5v5</t>
     </r>
@@ -555,6 +581,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>竞技场匹配间隔时间</t>
@@ -565,6 +592,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>答题中回答正确</t>
@@ -573,7 +601,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>X</t>
     </r>
@@ -581,6 +609,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>个问题</t>
@@ -615,6 +644,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>公会资金少于1000</t>
@@ -623,7 +653,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>W</t>
     </r>
@@ -631,6 +661,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，三倍产药失效</t>
@@ -641,6 +672,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>公会资金少于800</t>
@@ -649,7 +681,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>W</t>
     </r>
@@ -657,6 +689,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，双倍产药失效</t>
@@ -703,6 +736,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>满50级学徒满足</t>
@@ -711,7 +745,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>150</t>
     </r>
@@ -719,6 +753,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>贡献自动转成员</t>
@@ -729,6 +764,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>满50级学徒满足</t>
@@ -737,7 +773,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>150</t>
     </r>
@@ -745,6 +781,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>贡献入会48小时自动转成员</t>
@@ -788,6 +825,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>氪金宝箱</t>
@@ -796,7 +834,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>id</t>
     </r>
@@ -806,6 +844,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>瑟银宝箱</t>
@@ -814,7 +853,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>id</t>
     </r>
@@ -896,6 +935,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>公会副本最大</t>
@@ -904,7 +944,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>id</t>
     </r>
@@ -950,7 +990,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -958,6 +998,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>背包格数上限</t>
@@ -968,7 +1009,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -976,6 +1017,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>仓库格数上限</t>
@@ -1052,7 +1094,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>vip</t>
     </r>
@@ -1060,6 +1102,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>经验道具</t>
@@ -1068,7 +1111,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>id</t>
     </r>
@@ -1135,6 +1178,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>免费服</t>
@@ -1143,7 +1187,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>QQ</t>
     </r>
@@ -1151,6 +1195,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>礼包超链接</t>
@@ -1212,6 +1257,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>公会战加积分每</t>
@@ -1220,7 +1266,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -1228,6 +1274,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分钟</t>
@@ -1244,6 +1291,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>公会战</t>
@@ -1252,7 +1300,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>50</t>
     </r>
@@ -1260,6 +1308,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>级以上至少</t>
@@ -1268,7 +1317,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>30</t>
     </r>
@@ -1276,6 +1325,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>人</t>
@@ -1382,6 +1432,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>手机绑定获取验证码</t>
@@ -1390,7 +1441,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>CD(</t>
     </r>
@@ -1398,6 +1449,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>秒</t>
@@ -1406,7 +1458,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1422,6 +1474,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>装备最低价格</t>
@@ -1430,7 +1483,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>101</t>
     </r>
@@ -1502,14 +1555,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1518,11 +1565,13 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1530,163 +1579,41 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="60"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1719,193 +1646,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1922,110 +1669,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2044,203 +1693,65 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="66">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2251,104 +1762,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="61" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="61" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="15" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="15" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="61">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="15">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="14" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="14" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="66">
+  <cellStyles count="20">
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="差 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="14"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="常规 3 2 2" xfId="19"/>
-    <cellStyle name="常规 2 5" xfId="20"/>
-    <cellStyle name="解释性文本" xfId="21" builtinId="53"/>
-    <cellStyle name="注释 2" xfId="22"/>
-    <cellStyle name="标题 1" xfId="23" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="24" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="25" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="26" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="27" builtinId="44"/>
-    <cellStyle name="输出" xfId="28" builtinId="21"/>
-    <cellStyle name="计算" xfId="29" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="30" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="31" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="32" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="33" builtinId="24"/>
-    <cellStyle name="汇总" xfId="34" builtinId="25"/>
-    <cellStyle name="好" xfId="35" builtinId="26"/>
-    <cellStyle name="适中" xfId="36" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
-    <cellStyle name="常规 3 2" xfId="44"/>
-    <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="常规 3 3" xfId="48"/>
-    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="50"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="51" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="52" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="53" builtinId="49"/>
-    <cellStyle name="常规 2 3" xfId="54"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="55" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="56" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="57"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="58"/>
-    <cellStyle name="常规 4" xfId="59"/>
-    <cellStyle name="差 2" xfId="60"/>
-    <cellStyle name="常规 2" xfId="61"/>
-    <cellStyle name="常规 2 4" xfId="62"/>
-    <cellStyle name="常规 3" xfId="63"/>
-    <cellStyle name="常规 5" xfId="64"/>
-    <cellStyle name="注释 3" xfId="65"/>
+    <cellStyle name="常规 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="常规 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="常规 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="常规 2 4" xfId="16" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="常规 2 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="常规 3" xfId="17" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="常规 3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="常规 3 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="常规 3 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="常规 4" xfId="13" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="常规 5" xfId="18" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="常规 6" xfId="2" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="适中" xfId="6" builtinId="28"/>
+    <cellStyle name="注释 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="注释 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2677,30 +2146,29 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I310"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B290" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B75" sqref="B75"/>
+      <selection pane="bottomRight" activeCell="C313" sqref="C313"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="10.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="23.8181818181818" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="57" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2714,7 +2182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="13" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
@@ -2725,7 +2193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="13" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>101</v>
       </c>
@@ -2739,7 +2207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="13" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>102</v>
       </c>
@@ -2753,7 +2221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="13" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>103</v>
       </c>
@@ -2767,7 +2235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="13" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>104</v>
       </c>
@@ -2781,7 +2249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="13" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>105</v>
       </c>
@@ -2795,7 +2263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" ht="13" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>106</v>
       </c>
@@ -2809,7 +2277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="13" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>107</v>
       </c>
@@ -2823,7 +2291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" ht="13" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>108</v>
       </c>
@@ -2837,7 +2305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="13" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>109</v>
       </c>
@@ -2848,7 +2316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" ht="13" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>110</v>
       </c>
@@ -2862,7 +2330,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" ht="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>111</v>
       </c>
@@ -2873,7 +2341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" ht="13" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>120</v>
       </c>
@@ -2887,21 +2355,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" ht="13" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>121</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" ht="13" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>130</v>
       </c>
@@ -2915,7 +2383,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" ht="13" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>131</v>
       </c>
@@ -2929,21 +2397,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" ht="13" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>132</v>
       </c>
       <c r="B18">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" ht="13" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>133</v>
       </c>
@@ -2954,7 +2422,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" ht="13" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>134</v>
       </c>
@@ -2965,7 +2433,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" ht="13" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>135</v>
       </c>
@@ -2976,7 +2444,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" ht="13" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>140</v>
       </c>
@@ -2987,7 +2455,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" ht="13" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>141</v>
       </c>
@@ -2998,7 +2466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" ht="13" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>142</v>
       </c>
@@ -3012,7 +2480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" ht="13" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>143</v>
       </c>
@@ -3026,7 +2494,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" ht="13" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>144</v>
       </c>
@@ -3040,7 +2508,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" ht="13" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>145</v>
       </c>
@@ -3054,7 +2522,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" ht="13" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>146</v>
       </c>
@@ -3065,7 +2533,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" ht="13" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>147</v>
       </c>
@@ -3076,7 +2544,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" ht="13" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>148</v>
       </c>
@@ -3087,7 +2555,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" ht="13" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>149</v>
       </c>
@@ -3098,7 +2566,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" ht="13" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>150</v>
       </c>
@@ -3109,7 +2577,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" ht="13" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>151</v>
       </c>
@@ -3120,7 +2588,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" ht="13" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>152</v>
       </c>
@@ -3131,7 +2599,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" ht="13" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>153</v>
       </c>
@@ -3142,7 +2610,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" ht="13" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>154</v>
       </c>
@@ -3153,7 +2621,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" ht="13" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>155</v>
       </c>
@@ -3164,7 +2632,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" ht="13" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>156</v>
       </c>
@@ -3175,7 +2643,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" ht="13" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>157</v>
       </c>
@@ -3186,7 +2654,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" ht="13" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>158</v>
       </c>
@@ -3197,7 +2665,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" ht="13" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>159</v>
       </c>
@@ -3208,7 +2676,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" ht="13" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>160</v>
       </c>
@@ -3222,7 +2690,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" ht="13" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>161</v>
       </c>
@@ -3236,7 +2704,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" ht="13" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>162</v>
       </c>
@@ -3250,7 +2718,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" ht="13" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>163</v>
       </c>
@@ -3264,7 +2732,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" ht="13" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>164</v>
       </c>
@@ -3275,7 +2743,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" ht="13" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>165</v>
       </c>
@@ -3289,7 +2757,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" ht="13" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>166</v>
       </c>
@@ -3303,7 +2771,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" ht="13" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>167</v>
       </c>
@@ -3314,7 +2782,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" ht="13" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>168</v>
       </c>
@@ -3325,7 +2793,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" ht="13" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>169</v>
       </c>
@@ -3336,7 +2804,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" ht="13" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>170</v>
       </c>
@@ -3348,7 +2816,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" ht="13" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>171</v>
       </c>
@@ -3362,7 +2830,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" ht="13" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>172</v>
       </c>
@@ -3373,7 +2841,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" ht="13" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>173</v>
       </c>
@@ -3387,7 +2855,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" ht="13" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>174</v>
       </c>
@@ -3401,7 +2869,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" ht="13" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>175</v>
       </c>
@@ -3412,7 +2880,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" ht="13" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>176</v>
       </c>
@@ -3423,7 +2891,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" ht="13" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>177</v>
       </c>
@@ -3434,7 +2902,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" ht="13" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>178</v>
       </c>
@@ -3445,7 +2913,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" ht="13" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>179</v>
       </c>
@@ -3456,7 +2924,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" ht="13" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>180</v>
       </c>
@@ -3467,7 +2935,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" ht="13" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>181</v>
       </c>
@@ -3481,7 +2949,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" ht="13" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>182</v>
       </c>
@@ -3495,7 +2963,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>190</v>
       </c>
@@ -3506,7 +2974,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>191</v>
       </c>
@@ -3517,7 +2985,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>192</v>
       </c>
@@ -3528,7 +2996,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
         <v>193</v>
       </c>
@@ -3539,7 +3007,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>194</v>
       </c>
@@ -3550,7 +3018,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <v>195</v>
       </c>
@@ -3561,7 +3029,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>196</v>
       </c>
@@ -3572,7 +3040,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>197</v>
       </c>
@@ -3583,7 +3051,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" ht="13" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>198</v>
       </c>
@@ -3594,7 +3062,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" ht="13" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <v>199</v>
       </c>
@@ -3605,7 +3073,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" ht="13" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <v>200</v>
       </c>
@@ -3619,7 +3087,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" ht="13" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
         <v>201</v>
       </c>
@@ -3633,7 +3101,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" ht="13" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>202</v>
       </c>
@@ -3647,7 +3115,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" ht="13" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="8">
         <v>203</v>
       </c>
@@ -3661,7 +3129,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" ht="13" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <v>204</v>
       </c>
@@ -3672,7 +3140,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" ht="13" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>205</v>
       </c>
@@ -3686,7 +3154,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" ht="13" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>206</v>
       </c>
@@ -3697,7 +3165,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" ht="13" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>207</v>
       </c>
@@ -3711,7 +3179,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="83" ht="13" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>208</v>
       </c>
@@ -3722,7 +3190,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" ht="13" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>209</v>
       </c>
@@ -3733,7 +3201,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" ht="13" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>210</v>
       </c>
@@ -3747,7 +3215,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" ht="13" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>211</v>
       </c>
@@ -3761,7 +3229,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" ht="13" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>212</v>
       </c>
@@ -3775,7 +3243,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="88" s="1" customFormat="1" ht="13" spans="1:4">
+    <row r="88" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>213</v>
       </c>
@@ -3789,7 +3257,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="89" ht="13" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>214</v>
       </c>
@@ -3803,7 +3271,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" ht="13" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>215</v>
       </c>
@@ -3814,7 +3282,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" ht="13" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>216</v>
       </c>
@@ -3825,7 +3293,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="92" ht="13" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>217</v>
       </c>
@@ -3836,7 +3304,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" ht="13" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>218</v>
       </c>
@@ -3847,7 +3315,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="94" ht="13" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>219</v>
       </c>
@@ -3858,7 +3326,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="95" ht="13" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>220</v>
       </c>
@@ -3869,7 +3337,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="96" ht="13" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>221</v>
       </c>
@@ -3880,7 +3348,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="97" ht="14" spans="1:5">
+    <row r="97" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>222</v>
       </c>
@@ -3893,7 +3361,7 @@
       </c>
       <c r="E97" s="12"/>
     </row>
-    <row r="98" ht="13" spans="1:4">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>223</v>
       </c>
@@ -3905,7 +3373,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" ht="13" spans="1:4">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>224</v>
       </c>
@@ -3916,7 +3384,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" ht="13" spans="1:4">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>225</v>
       </c>
@@ -3927,7 +3395,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="101" ht="13" spans="1:4">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>226</v>
       </c>
@@ -3941,7 +3409,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="102" ht="13" spans="1:4">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>227</v>
       </c>
@@ -3955,7 +3423,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="103" ht="13" spans="1:4">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>228</v>
       </c>
@@ -3969,7 +3437,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="104" ht="13" spans="1:4">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>229</v>
       </c>
@@ -3980,7 +3448,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="105" ht="13" spans="1:4">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>230</v>
       </c>
@@ -3991,7 +3459,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="106" ht="13" spans="1:4">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>231</v>
       </c>
@@ -4002,7 +3470,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="107" ht="13" spans="1:4">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>232</v>
       </c>
@@ -4016,7 +3484,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="108" ht="13" spans="1:4">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>233</v>
       </c>
@@ -4030,7 +3498,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="109" ht="13" spans="1:4">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>234</v>
       </c>
@@ -4044,7 +3512,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="110" ht="13" spans="1:4">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>235</v>
       </c>
@@ -4055,7 +3523,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="111" ht="13" spans="1:4">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>236</v>
       </c>
@@ -4067,7 +3535,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="112" ht="13" spans="1:4">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>237</v>
       </c>
@@ -4078,7 +3546,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="113" ht="13" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>238</v>
       </c>
@@ -4092,7 +3560,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="114" ht="13" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>239</v>
       </c>
@@ -4106,7 +3574,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="115" ht="14" spans="1:4">
+    <row r="115" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>240</v>
       </c>
@@ -4118,7 +3586,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="116" ht="13" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>241</v>
       </c>
@@ -4129,7 +3597,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="117" ht="13" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>242</v>
       </c>
@@ -4140,7 +3608,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="118" ht="13" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>243</v>
       </c>
@@ -4151,7 +3619,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="119" ht="13" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>244</v>
       </c>
@@ -4162,7 +3630,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="120" ht="13" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>245</v>
       </c>
@@ -4173,7 +3641,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="121" ht="13" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>246</v>
       </c>
@@ -4184,7 +3652,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="122" ht="13" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>247</v>
       </c>
@@ -4195,7 +3663,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="123" ht="13" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>250</v>
       </c>
@@ -4207,7 +3675,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="124" ht="13" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>251</v>
       </c>
@@ -4219,7 +3687,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="125" ht="13" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>252</v>
       </c>
@@ -4231,7 +3699,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="126" ht="13" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>253</v>
       </c>
@@ -4243,7 +3711,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="127" ht="13" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>254</v>
       </c>
@@ -4255,7 +3723,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="128" ht="13" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>255</v>
       </c>
@@ -4267,7 +3735,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="129" ht="13" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>256</v>
       </c>
@@ -4279,7 +3747,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="130" ht="13" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>257</v>
       </c>
@@ -4291,7 +3759,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="131" ht="13" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>258</v>
       </c>
@@ -4303,7 +3771,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="132" ht="14" spans="1:4">
+    <row r="132" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>261</v>
       </c>
@@ -4315,7 +3783,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="133" ht="13" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>262</v>
       </c>
@@ -4329,7 +3797,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="134" ht="13" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>263</v>
       </c>
@@ -4343,7 +3811,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="135" ht="13" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>264</v>
       </c>
@@ -4354,7 +3822,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="136" ht="13" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>265</v>
       </c>
@@ -4368,7 +3836,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="137" ht="13" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>266</v>
       </c>
@@ -4382,7 +3850,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="138" ht="13" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>267</v>
       </c>
@@ -4393,7 +3861,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="139" ht="13" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>268</v>
       </c>
@@ -4404,7 +3872,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="140" ht="13" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>269</v>
       </c>
@@ -4415,7 +3883,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="141" ht="13" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>270</v>
       </c>
@@ -4429,7 +3897,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="142" ht="13" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>271</v>
       </c>
@@ -4443,7 +3911,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="143" ht="13" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>272</v>
       </c>
@@ -4457,7 +3925,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="144" ht="13" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>273</v>
       </c>
@@ -4471,7 +3939,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="145" ht="13" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>274</v>
       </c>
@@ -4482,7 +3950,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="146" s="2" customFormat="1" ht="13" spans="1:4">
+    <row r="146" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>275</v>
       </c>
@@ -4493,7 +3961,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" s="2" customFormat="1" ht="13" spans="1:4">
+    <row r="147" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>276</v>
       </c>
@@ -4504,7 +3972,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="148" s="2" customFormat="1" ht="13" spans="1:4">
+    <row r="148" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>277</v>
       </c>
@@ -4515,7 +3983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="149" s="2" customFormat="1" ht="13" spans="1:4">
+    <row r="149" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>278</v>
       </c>
@@ -4526,7 +3994,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="150" s="2" customFormat="1" ht="13" spans="1:4">
+    <row r="150" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>279</v>
       </c>
@@ -4537,7 +4005,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" s="2" customFormat="1" ht="13" spans="1:4">
+    <row r="151" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>280</v>
       </c>
@@ -4548,7 +4016,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="152" s="2" customFormat="1" ht="13" spans="1:4">
+    <row r="152" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>281</v>
       </c>
@@ -4559,7 +4027,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="153" ht="13" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>282</v>
       </c>
@@ -4570,7 +4038,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="154" ht="13" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>283</v>
       </c>
@@ -4581,7 +4049,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="155" ht="13" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>284</v>
       </c>
@@ -4592,7 +4060,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="156" ht="13" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>285</v>
       </c>
@@ -4603,7 +4071,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="157" ht="13" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>286</v>
       </c>
@@ -4617,7 +4085,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="158" ht="13" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>287</v>
       </c>
@@ -4631,7 +4099,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="159" ht="13" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>288</v>
       </c>
@@ -4645,7 +4113,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="160" ht="13" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>289</v>
       </c>
@@ -4659,7 +4127,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="161" ht="13" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>290</v>
       </c>
@@ -4673,7 +4141,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="162" ht="13" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>291</v>
       </c>
@@ -4684,7 +4152,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="163" ht="13" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>292</v>
       </c>
@@ -4695,7 +4163,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="164" ht="13" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>293</v>
       </c>
@@ -4706,7 +4174,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="165" ht="13" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>294</v>
       </c>
@@ -4717,7 +4185,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="166" ht="13" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>295</v>
       </c>
@@ -4728,7 +4196,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="167" ht="13" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>296</v>
       </c>
@@ -4742,7 +4210,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="168" ht="13" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>297</v>
       </c>
@@ -4756,7 +4224,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="169" ht="13" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>298</v>
       </c>
@@ -4767,7 +4235,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="170" ht="13" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>299</v>
       </c>
@@ -4778,7 +4246,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="171" ht="13" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>300</v>
       </c>
@@ -4789,7 +4257,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="172" ht="13" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>301</v>
       </c>
@@ -4800,7 +4268,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="173" ht="13" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>302</v>
       </c>
@@ -4811,7 +4279,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="174" ht="13" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>303</v>
       </c>
@@ -4822,7 +4290,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="175" ht="13" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>304</v>
       </c>
@@ -4833,7 +4301,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="176" ht="13" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>305</v>
       </c>
@@ -4844,7 +4312,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="177" ht="13" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>306</v>
       </c>
@@ -4855,7 +4323,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="178" ht="13" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>307</v>
       </c>
@@ -4866,7 +4334,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="179" ht="13" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>308</v>
       </c>
@@ -4877,7 +4345,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="180" ht="13" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>309</v>
       </c>
@@ -4891,7 +4359,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="181" ht="13" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>310</v>
       </c>
@@ -4902,7 +4370,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="182" ht="13" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>311</v>
       </c>
@@ -4913,7 +4381,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="183" ht="13" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>312</v>
       </c>
@@ -4924,7 +4392,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="184" ht="13" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>313</v>
       </c>
@@ -4935,7 +4403,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="185" ht="13" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>314</v>
       </c>
@@ -4946,7 +4414,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="186" ht="13" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>315</v>
       </c>
@@ -4957,7 +4425,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="187" ht="13" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>316</v>
       </c>
@@ -4968,7 +4436,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="188" ht="13" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>317</v>
       </c>
@@ -4979,7 +4447,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="189" ht="13" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>318</v>
       </c>
@@ -4990,7 +4458,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="190" ht="13" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>319</v>
       </c>
@@ -5004,7 +4472,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="191" ht="13" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>320</v>
       </c>
@@ -5015,7 +4483,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="192" ht="13" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>321</v>
       </c>
@@ -5029,7 +4497,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="193" ht="13" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>322</v>
       </c>
@@ -5043,7 +4511,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="194" ht="13" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>323</v>
       </c>
@@ -5054,7 +4522,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="195" ht="13" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>324</v>
       </c>
@@ -5065,7 +4533,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="196" ht="13" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>325</v>
       </c>
@@ -5076,7 +4544,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="197" ht="13" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>326</v>
       </c>
@@ -5087,7 +4555,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="198" ht="13" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>327</v>
       </c>
@@ -5098,7 +4566,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="199" ht="13" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>328</v>
       </c>
@@ -5109,7 +4577,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="200" ht="13" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>329</v>
       </c>
@@ -5120,7 +4588,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="201" ht="13" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>330</v>
       </c>
@@ -5134,7 +4602,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="202" ht="13" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>331</v>
       </c>
@@ -5148,7 +4616,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="203" ht="13" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>332</v>
       </c>
@@ -5159,7 +4627,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="204" ht="13" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>333</v>
       </c>
@@ -5170,7 +4638,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="205" ht="13" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>334</v>
       </c>
@@ -5181,7 +4649,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="206" ht="13" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>335</v>
       </c>
@@ -5195,7 +4663,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="207" ht="13" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>336</v>
       </c>
@@ -5206,7 +4674,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="208" ht="13" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>337</v>
       </c>
@@ -5220,7 +4688,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="209" ht="13" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>338</v>
       </c>
@@ -5231,7 +4699,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="210" ht="13" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>339</v>
       </c>
@@ -5242,7 +4710,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="211" ht="13" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>340</v>
       </c>
@@ -5253,7 +4721,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="212" ht="13" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>341</v>
       </c>
@@ -5267,7 +4735,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="213" ht="13" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>342</v>
       </c>
@@ -5278,7 +4746,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="214" ht="13" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>343</v>
       </c>
@@ -5289,7 +4757,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="215" ht="13" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>344</v>
       </c>
@@ -5300,7 +4768,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="216" ht="13" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>345</v>
       </c>
@@ -5311,7 +4779,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="217" ht="13" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>346</v>
       </c>
@@ -5322,7 +4790,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="218" ht="13" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>347</v>
       </c>
@@ -5333,7 +4801,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="219" ht="13" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>348</v>
       </c>
@@ -5344,7 +4812,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="220" ht="13" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>349</v>
       </c>
@@ -5355,7 +4823,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="221" ht="13" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>350</v>
       </c>
@@ -5366,7 +4834,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="222" ht="13" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>351</v>
       </c>
@@ -5380,7 +4848,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="223" ht="13" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>352</v>
       </c>
@@ -5391,7 +4859,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="224" ht="13" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>355</v>
       </c>
@@ -5405,7 +4873,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="225" ht="13" spans="1:4">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>356</v>
       </c>
@@ -5419,7 +4887,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="226" ht="13" spans="1:4">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>357</v>
       </c>
@@ -5433,7 +4901,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="227" ht="13" spans="1:4">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>358</v>
       </c>
@@ -5447,7 +4915,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="228" ht="13" spans="1:4">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>359</v>
       </c>
@@ -5461,7 +4929,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="229" ht="13" spans="1:4">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>360</v>
       </c>
@@ -5475,7 +4943,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="230" ht="13" spans="1:4">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>361</v>
       </c>
@@ -5489,7 +4957,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="231" ht="13" spans="1:4">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>362</v>
       </c>
@@ -5503,7 +4971,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="232" ht="13" spans="1:4">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>363</v>
       </c>
@@ -5517,7 +4985,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="233" ht="13" spans="1:4">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>364</v>
       </c>
@@ -5531,7 +4999,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="234" ht="13" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>365</v>
       </c>
@@ -5546,7 +5014,7 @@
       </c>
       <c r="I234" s="18"/>
     </row>
-    <row r="235" ht="13" spans="1:7">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>366</v>
       </c>
@@ -5559,7 +5027,7 @@
       </c>
       <c r="G235" s="18"/>
     </row>
-    <row r="236" ht="13" spans="1:4">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>367</v>
       </c>
@@ -5570,7 +5038,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="237" ht="13" spans="1:4">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>368</v>
       </c>
@@ -5581,7 +5049,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="238" ht="13" spans="1:4">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>400</v>
       </c>
@@ -5595,7 +5063,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="239" ht="13" spans="1:4">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>401</v>
       </c>
@@ -5609,7 +5077,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="240" ht="13" spans="1:4">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>402</v>
       </c>
@@ -5623,7 +5091,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="241" ht="13" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>403</v>
       </c>
@@ -5637,7 +5105,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="242" ht="13" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>404</v>
       </c>
@@ -5651,7 +5119,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="243" ht="13" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>405</v>
       </c>
@@ -5665,7 +5133,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="244" ht="13" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>406</v>
       </c>
@@ -5679,7 +5147,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="245" ht="13" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>407</v>
       </c>
@@ -5693,7 +5161,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="246" ht="13" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>408</v>
       </c>
@@ -5707,7 +5175,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="247" ht="13" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>409</v>
       </c>
@@ -5721,7 +5189,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="248" ht="13" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>410</v>
       </c>
@@ -5735,7 +5203,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="249" ht="13" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>411</v>
       </c>
@@ -5749,7 +5217,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="250" ht="13" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>412</v>
       </c>
@@ -5763,7 +5231,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="251" ht="13" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>413</v>
       </c>
@@ -5777,7 +5245,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="252" ht="13" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>414</v>
       </c>
@@ -5791,7 +5259,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="253" ht="13" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>415</v>
       </c>
@@ -5805,7 +5273,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="254" ht="13" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>416</v>
       </c>
@@ -5819,7 +5287,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="255" ht="13" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>417</v>
       </c>
@@ -5833,7 +5301,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="256" ht="13" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>418</v>
       </c>
@@ -5847,7 +5315,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="257" ht="13" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>419</v>
       </c>
@@ -5861,7 +5329,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="258" ht="13" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>420</v>
       </c>
@@ -5875,7 +5343,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="259" ht="13" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>421</v>
       </c>
@@ -5889,7 +5357,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="260" ht="13" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>422</v>
       </c>
@@ -5903,7 +5371,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="261" ht="13" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>423</v>
       </c>
@@ -5917,7 +5385,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="262" ht="13" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>424</v>
       </c>
@@ -5931,7 +5399,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="263" ht="13" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>425</v>
       </c>
@@ -5942,7 +5410,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="264" ht="13" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>426</v>
       </c>
@@ -5953,7 +5421,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="265" ht="13" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>427</v>
       </c>
@@ -5967,7 +5435,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="266" ht="13" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>428</v>
       </c>
@@ -5981,7 +5449,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="267" ht="13" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>429</v>
       </c>
@@ -5992,7 +5460,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="268" ht="13" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>430</v>
       </c>
@@ -6001,7 +5469,7 @@
       </c>
       <c r="D268" s="5"/>
     </row>
-    <row r="269" ht="13" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>431</v>
       </c>
@@ -6012,7 +5480,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>432</v>
       </c>
@@ -6023,7 +5491,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>433</v>
       </c>
@@ -6037,7 +5505,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>434</v>
       </c>
@@ -6051,7 +5519,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>435</v>
       </c>
@@ -6062,7 +5530,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>436</v>
       </c>
@@ -6076,7 +5544,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="275" ht="13" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>437</v>
       </c>
@@ -6087,7 +5555,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="276" ht="13" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>438</v>
       </c>
@@ -6101,7 +5569,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="277" ht="13" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>439</v>
       </c>
@@ -6115,7 +5583,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="278" ht="13" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>440</v>
       </c>
@@ -6129,7 +5597,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="279" ht="13" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>441</v>
       </c>
@@ -6143,7 +5611,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="280" ht="13" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>442</v>
       </c>
@@ -6157,7 +5625,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="281" ht="13" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>443</v>
       </c>
@@ -6168,7 +5636,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="282" ht="13" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>444</v>
       </c>
@@ -6182,7 +5650,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="283" ht="13" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>445</v>
       </c>
@@ -6193,7 +5661,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="284" ht="13" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>446</v>
       </c>
@@ -6207,7 +5675,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="285" ht="13" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>447</v>
       </c>
@@ -6221,7 +5689,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="286" ht="13" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>448</v>
       </c>
@@ -6235,7 +5703,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="287" ht="13" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>449</v>
       </c>
@@ -6249,7 +5717,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="288" ht="13" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>450</v>
       </c>
@@ -6263,7 +5731,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="289" ht="13" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>451</v>
       </c>
@@ -6274,7 +5742,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="290" ht="13" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>452</v>
       </c>
@@ -6288,7 +5756,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="291" ht="13" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>453</v>
       </c>
@@ -6302,7 +5770,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="292" ht="13" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>454</v>
       </c>
@@ -6316,7 +5784,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="293" ht="13" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>455</v>
       </c>
@@ -6330,7 +5798,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="294" ht="13" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>456</v>
       </c>
@@ -6341,7 +5809,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="295" ht="13" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>457</v>
       </c>
@@ -6352,7 +5820,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="296" ht="13" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>458</v>
       </c>
@@ -6366,7 +5834,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="297" ht="13" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>459</v>
       </c>
@@ -6380,7 +5848,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="298" ht="14" spans="1:4">
+    <row r="298" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>460</v>
       </c>
@@ -6392,7 +5860,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="299" ht="14" spans="1:4">
+    <row r="299" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>461</v>
       </c>
@@ -6404,7 +5872,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="300" ht="14" spans="1:4">
+    <row r="300" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>462</v>
       </c>
@@ -6416,7 +5884,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="301" ht="14" spans="1:4">
+    <row r="301" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>463</v>
       </c>
@@ -6428,7 +5896,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="302" ht="14" spans="1:4">
+    <row r="302" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>464</v>
       </c>
@@ -6440,7 +5908,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="303" ht="14" spans="1:4">
+    <row r="303" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>465</v>
       </c>
@@ -6452,7 +5920,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="304" ht="14" spans="1:4">
+    <row r="304" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>466</v>
       </c>
@@ -6466,7 +5934,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="305" s="3" customFormat="1" ht="13" spans="1:4">
+    <row r="305" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" s="3">
         <v>467</v>
       </c>
@@ -6480,7 +5948,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="306" ht="14" spans="1:4">
+    <row r="306" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A306" s="3">
         <v>468</v>
       </c>
@@ -6492,7 +5960,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="307" ht="14" spans="1:4">
+    <row r="307" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A307" s="3">
         <v>469</v>
       </c>
@@ -6504,7 +5972,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="308" ht="14" spans="1:4">
+    <row r="308" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A308" s="3">
         <v>470</v>
       </c>
@@ -6516,7 +5984,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="309" ht="14" spans="1:4">
+    <row r="309" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A309" s="3">
         <v>471</v>
       </c>
@@ -6528,7 +5996,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="310" ht="14" spans="1:4">
+    <row r="310" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A310" s="3">
         <v>472</v>
       </c>
@@ -6542,15 +6010,44 @@
         <v>309</v>
       </c>
     </row>
+    <row r="311" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A311" s="3">
+        <v>473</v>
+      </c>
+      <c r="B311" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C311">
+        <v>1000</v>
+      </c>
+      <c r="D311" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A312" s="3">
+        <v>474</v>
+      </c>
+      <c r="B312" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C312">
+        <v>1000</v>
+      </c>
+      <c r="D312" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C268" r:id="rId3" display="http://djsc.locojoy.com"/>
-    <hyperlink ref="C235" r:id="rId4" display="http://m.vip.qq.com/club/act/2016/112126/64edf656ab.html?_wv=1025&amp;_wwv=4"/>
-    <hyperlink ref="C274" r:id="rId4" display="http://m.vip.qq.com/club/act/2016/112126/64edf656ab.html?_wv=1025&amp;_wwv=4"/>
+    <hyperlink ref="C268" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C235" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C274" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>